--- a/personal directory/kimjh5182/전후반기 승률 차이.xlsx
+++ b/personal directory/kimjh5182/전후반기 승률 차이.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\OneDrive\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\2020_BigContest\personal directory\kimjh5182\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C9EC71C-2731-4974-870F-7170A6A14D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B1D046-780F-45CA-BF21-873ACA2F818F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0888A17E-82EB-4026-9889-D91B646B3AA2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{0888A17E-82EB-4026-9889-D91B646B3AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,88 +379,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1742,16 +1661,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2082,9 +2001,9 @@
       <selection activeCell="A11" sqref="A11:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2149,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -2214,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2279,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -2344,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2409,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -2474,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>7</v>
       </c>
@@ -2539,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>8</v>
       </c>
@@ -2604,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2669,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -2734,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>16</v>
       </c>
@@ -2748,7 +2667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +2712,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2838,7 +2757,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2883,7 +2802,7 @@
         <v>0.11599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -2928,7 +2847,7 @@
         <v>-2.2999999999999909E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2973,7 +2892,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
@@ -3018,7 +2937,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +2982,7 @@
         <v>3.1000000000000028E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -3108,7 +3027,7 @@
         <v>-0.11799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3153,7 +3072,7 @@
         <v>-4.0999999999999981E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>10</v>
       </c>
@@ -3198,11 +3117,11 @@
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3332,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>2</v>
       </c>
@@ -3397,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -3462,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>4</v>
       </c>
@@ -3527,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -3592,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>6</v>
       </c>
@@ -3657,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -3722,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>8</v>
       </c>
@@ -3787,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -3852,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>10</v>
       </c>
@@ -3917,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
@@ -3987,9 +3906,9 @@
       <selection activeCell="A13" sqref="A13:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4006,7 +3925,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +3942,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -4040,7 +3959,7 @@
         <v>0.11599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -4057,7 +3976,7 @@
         <v>-2.2999999999999909E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4074,7 +3993,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4091,7 +4010,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -4108,7 +4027,7 @@
         <v>3.1000000000000028E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4125,7 +4044,7 @@
         <v>-0.11799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4061,7 @@
         <v>-4.0999999999999981E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
@@ -4159,7 +4078,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>16</v>
       </c>
@@ -4173,7 +4092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -4190,7 +4109,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -4207,7 +4126,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -4224,7 +4143,7 @@
         <v>0.11599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -4241,7 +4160,7 @@
         <v>-2.2999999999999909E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4258,7 +4177,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
@@ -4275,7 +4194,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -4292,7 +4211,7 @@
         <v>3.1000000000000028E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -4309,7 +4228,7 @@
         <v>-0.11799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4245,7 @@
         <v>-4.0999999999999981E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
@@ -4379,16 +4298,16 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>16</v>
       </c>
       <c r="E1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4318,7 @@
         <v>0.6</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
         <v>-9.8999999999999977E-2</v>
       </c>
       <c r="E2" s="3"/>
@@ -4409,7 +4328,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4420,7 +4339,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>-7.2999999999999954E-2</v>
       </c>
       <c r="E3" s="8"/>
@@ -4430,7 +4349,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4441,7 +4360,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>9.000000000000008E-3</v>
       </c>
       <c r="E4" s="3"/>
@@ -4451,7 +4370,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -4462,7 +4381,7 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-5.7999999999999996E-2</v>
       </c>
       <c r="E5" s="8"/>
@@ -4472,7 +4391,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -4483,7 +4402,7 @@
         <v>0.443</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>-2.9999999999999971E-2</v>
       </c>
       <c r="E6" s="3"/>
@@ -4493,7 +4412,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -4504,7 +4423,7 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>4.8999999999999988E-2</v>
       </c>
       <c r="E7" s="8"/>
@@ -4514,7 +4433,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -4525,7 +4444,7 @@
         <v>0.53400000000000003</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8" s="3"/>
@@ -4535,7 +4454,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -4546,7 +4465,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>-9.8999999999999977E-2</v>
       </c>
       <c r="E9" s="8"/>
@@ -4556,7 +4475,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4567,7 +4486,7 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="E10" s="3"/>
@@ -4577,7 +4496,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -4588,7 +4507,7 @@
         <v>0.53500000000000003</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="E11" s="13"/>
@@ -4598,7 +4517,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>16</v>
       </c>
@@ -4612,7 +4531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4629,7 +4548,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4646,7 +4565,7 @@
         <v>3.1000000000000028E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4663,7 +4582,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4680,7 +4599,7 @@
         <v>-2.2999999999999909E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -4697,7 +4616,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -4714,7 +4633,7 @@
         <v>0.11599999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -4731,7 +4650,7 @@
         <v>-4.0999999999999981E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4748,7 +4667,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -4765,7 +4684,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
@@ -4784,7 +4703,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D11" xr:uid="{646CA435-F124-4855-AF94-3D1D43D10D6F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortState ref="A2:D11">
       <sortCondition descending="1" ref="B1:B11"/>
     </sortState>
   </autoFilter>
@@ -4814,14 +4733,14 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -4832,11 +4751,11 @@
         <v>0.56699999999999995</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
         <v>-7.8000000000000069E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4847,11 +4766,11 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>-0.14200000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4862,11 +4781,11 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>-8.7999999999999967E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4877,11 +4796,11 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-4.3999999999999984E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4892,11 +4811,11 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>-3.6000000000000032E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -4907,11 +4826,11 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>0.18399999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4922,11 +4841,11 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>0.18900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
@@ -4937,11 +4856,11 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4952,11 +4871,11 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>3.6999999999999977E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4967,13 +4886,13 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>-7.9999999999999516E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D11" xr:uid="{1B95621D-4D85-4096-84E8-A34C749FE16C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortState ref="A2:D11">
       <sortCondition descending="1" ref="B1:B11"/>
     </sortState>
   </autoFilter>
@@ -5002,14 +4921,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5020,11 +4939,11 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
         <v>-5.600000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -5035,11 +4954,11 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>-0.14699999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5050,11 +4969,11 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>-4.3999999999999928E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5065,11 +4984,11 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-0.16900000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5080,11 +4999,11 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>7.6999999999999957E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -5095,11 +5014,11 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>-2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5110,11 +5029,11 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>3.8999999999999979E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -5125,11 +5044,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>0.11200000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5140,11 +5059,11 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>4.6999999999999986E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -5155,13 +5074,13 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>0.13800000000000001</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D11" xr:uid="{3FAD4023-3426-4A54-A8F8-5E937156EC86}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortState ref="A2:D11">
       <sortCondition descending="1" ref="B1:B11"/>
     </sortState>
   </autoFilter>
@@ -5190,14 +5109,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5208,11 +5127,11 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5223,11 +5142,11 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>3.1000000000000028E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5238,11 +5157,11 @@
         <v>0.627</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5253,11 +5172,11 @@
         <v>0.54</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-2.2999999999999909E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -5268,11 +5187,11 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -5283,11 +5202,11 @@
         <v>0.56699999999999995</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>0.11599999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5298,11 +5217,11 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>-4.0999999999999981E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -5313,11 +5232,11 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
@@ -5328,11 +5247,11 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -5343,13 +5262,13 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>-0.11799999999999999</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D11" xr:uid="{C31786DF-D0AA-49A0-954F-8EE6F024B3C9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortState ref="A2:D11">
       <sortCondition descending="1" ref="B1:B11"/>
     </sortState>
   </autoFilter>
